--- a/App_Data/Template/ImportPolicy.xlsx
+++ b/App_Data/Template/ImportPolicy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Agent ID.</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>เบี้ยรวม</t>
+  </si>
+  <si>
+    <t>Insurer Code</t>
   </si>
 </sst>
 </file>
@@ -382,50 +385,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/App_Data/Template/ImportPolicy.xlsx
+++ b/App_Data/Template/ImportPolicy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Agent ID.</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Insurer Code</t>
+  </si>
+  <si>
+    <t>ประเภทประกันภัย</t>
+  </si>
+  <si>
+    <t>ทะเบียนรถ</t>
+  </si>
+  <si>
+    <t>เลขตัวถัง</t>
+  </si>
+  <si>
+    <t>จำนวนเงินเอาประกัน</t>
   </si>
 </sst>
 </file>
@@ -82,8 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,26 +399,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -424,17 +443,35 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -446,11 +483,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
